--- a/biology/Médecine/Alphonse_Robert/Alphonse_Robert.xlsx
+++ b/biology/Médecine/Alphonse_Robert/Alphonse_Robert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">César Alphonse Robert, né le 17 novembre 1801 à Marseille et mort à 1er décembre 1862 à Paris, est un médecin et chirurgien français. Il est l'un des membres fondateurs de la Société anatomique de Paris en 1826, de l'Académie de chirurgie en 1843, et membre de l'Académie de médecine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">César Alphonse Robert, né le 17 novembre 1801 à Marseille et mort à 1er décembre 1862 à Paris, est un médecin et chirurgien français. Il est l'un des membres fondateurs de la Société anatomique de Paris en 1826, de l'Académie de chirurgie en 1843, et membre de l'Académie de médecine.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphonse Robert est le fils de Louis Jean Joseph Robert, négociant, et de Magdeleine Simone.
-Après son arrivée à Paris en 1821, il est externe (1823) puis interne (1825) et loge avec son cousin Hector Berlioz au 104 rue Saint-Jacques[3], alors son condisciple à la Faculté de médecine de Paris. Il est reçu docteur en médecine en 1831 en soutenant une thèse intitulée Considérations générales sur les plaies d’armes à feu. Il est nommé aide d’anatomie (1829) puis prosecteur (1831) de la Faculté de médecine de Paris.
+Après son arrivée à Paris en 1821, il est externe (1823) puis interne (1825) et loge avec son cousin Hector Berlioz au 104 rue Saint-Jacques, alors son condisciple à la Faculté de médecine de Paris. Il est reçu docteur en médecine en 1831 en soutenant une thèse intitulée Considérations générales sur les plaies d’armes à feu. Il est nommé aide d’anatomie (1829) puis prosecteur (1831) de la Faculté de médecine de Paris.
 Agrégé en 1832, il est chirurgien du Bureau central et chirurgien des hôpitaux, à partir de 1834, exerçant à l'Hôpital de Lourcine, à l'Hôpital Beaujon puis à l'Hôtel-Dieu. Il est également professeur d'anatomie à l'École des Beaux-Arts.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ligament de Robert (ou troisième ligament croisé de Robert)[4]: ligament ménisco-fémoral postérieur.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ligament de Robert (ou troisième ligament croisé de Robert): ligament ménisco-fémoral postérieur.</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Considérations générales sur les plaies d'armes à feu, [Thèse de médecine], 1831.
 Traité théorique et pratique du rhumatisme, de la goutte, et des maladies des nerfs, Baillière, Paris, 1840.
